--- a/web-platform_07_21_dev/static/media/data/accounts/export_users.xlsx
+++ b/web-platform_07_21_dev/static/media/data/accounts/export_users.xlsx
@@ -565,7 +565,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>pbkdf2_sha256$260000$PIWVSlPy3A6dY6z5TUAkYB$DW5E2d6yIW/Kh7ZgdXEnDlYF3nSzxxvCDxZt/qcIJJ0=</t>
+          <t>pbkdf2_sha256$260000$eMUJqathNQRDCDS1Aj79RX$gRVUzzAu72EW6CcLSiCadX+AKquVN/odJirG5r588M0=</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -600,12 +600,12 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>Богдан</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>Андриенко</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
